--- a/gropin/schema/metadataschema323.xlsx
+++ b/gropin/schema/metadataschema323.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Gropin growth model for Escherichia coli O157:H7 in/on Poultry _Cooked_ (gropin ID: 323 )</t>
+          <t>Gropin secondary growth model for Escherichia coli O157:H7 in/on Poultry _Cooked_ (gropin ID: 323 )</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -1914,7 +1914,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>QRA model</t>
+          <t>Predictive</t>
         </is>
       </c>
     </row>
@@ -5374,7 +5374,7 @@
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>seq(6.81681,45.1148851148851,length.out=21)</t>
+          <t>seq(6.81681,45.1148851148851,length.out=10)</t>
         </is>
       </c>
     </row>
@@ -5436,7 +5436,7 @@
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>seq(4.004,8.97102897102897,length.out=21)</t>
+          <t>seq(4.004,8.97102897102897,length.out=10)</t>
         </is>
       </c>
     </row>
@@ -5493,7 +5493,7 @@
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>seq(0.941941,0.999000999000999,length.out=21)</t>
+          <t>seq(0.941941,0.999000999000999,length.out=10)</t>
         </is>
       </c>
     </row>
